--- a/src/Database/Data.xlsx
+++ b/src/Database/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\NetBeansProjects\PetGuardianManagement\src\Database\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06596DE-CCF4-4B97-9836-615A905E7881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44192ADA-058A-4E16-8535-F010EA750927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" tabRatio="597" xr2:uid="{2D618FC3-BD59-4724-8FD9-C5132DA0423C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" tabRatio="597" activeTab="6" xr2:uid="{2D618FC3-BD59-4724-8FD9-C5132DA0423C}"/>
   </bookViews>
   <sheets>
     <sheet name="NguoiDung" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="79">
   <si>
     <t>Email</t>
   </si>
@@ -81,9 +81,6 @@
     <t>admin3@gmail.com</t>
   </si>
   <si>
-    <t>Nu</t>
-  </si>
-  <si>
     <t>Nam</t>
   </si>
   <si>
@@ -129,12 +126,6 @@
     <t>TrangThai</t>
   </si>
   <si>
-    <t>Da het han</t>
-  </si>
-  <si>
-    <t>Dang su dung</t>
-  </si>
-  <si>
     <t>MaHD</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>Charlotte</t>
   </si>
   <si>
-    <t>NgayMua</t>
-  </si>
-  <si>
     <t>22520267@gm.uit.edu.vn</t>
   </si>
   <si>
@@ -277,6 +265,21 @@
   </si>
   <si>
     <t>Khach Hang</t>
+  </si>
+  <si>
+    <t>Đã hết hạn</t>
+  </si>
+  <si>
+    <t>Chưa kích hoạt</t>
+  </si>
+  <si>
+    <t>Đang sử dụng</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>NgayKichHoat</t>
   </si>
 </sst>
 </file>
@@ -714,25 +717,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE0D3F5-D7B0-4544-BDA2-6C5FF990EC54}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I16" sqref="I16"/>
+      <selection pane="bottomLeft" activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.90625" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="19.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" customWidth="1"/>
-    <col min="5" max="5" width="16.08984375" customWidth="1"/>
-    <col min="6" max="6" width="18.90625" customWidth="1"/>
-    <col min="7" max="7" width="16.81640625" customWidth="1"/>
+    <col min="1" max="1" width="23.85546875" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.81640625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -761,307 +764,307 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="4" t="str">
         <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
-        <v>fmtajoqa</v>
+        <v>rufloult</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="9">
         <v>31675</v>
       </c>
       <c r="F2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="H2" s="4">
         <v>363598475</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="4" t="str">
         <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
-        <v>jnetkojm</v>
+        <v>lbgdbids</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E3" s="9">
         <v>31676</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="H3" s="4">
         <v>865962547</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B4" s="4" t="str">
         <f ca="1">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
-        <v>wkmlflja</v>
+        <v>wrnwyvaa</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E4" s="9">
         <v>33236</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H4" s="4">
         <v>775696358</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B5" s="4" t="str">
         <f t="shared" ref="B5:B11" ca="1" si="0">CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))&amp;CHAR(INT(RAND()*25+97))</f>
-        <v>hytvgysg</v>
+        <v>stmkeujt</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E5" s="9">
         <v>33237</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H5" s="4">
         <v>334586738</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B6" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>wnkqjyql</v>
+        <v>vngcfvvn</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E6" s="9">
         <v>37549</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="4">
         <v>368909827</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B7" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>cbgkktpj</v>
+        <v>hivmxcoj</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" s="9">
         <v>37525</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H7" s="4">
         <v>776695664</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B8" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>kehsyoqt</v>
+        <v>rajateby</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E8" s="9">
         <v>37342</v>
       </c>
       <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="H8" s="4">
         <v>869055450</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B9" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>bxynvdad</v>
+        <v>mqtkhkyt</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="9">
         <v>37608</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" s="4">
         <v>335586347</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B10" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>hbuqujvl</v>
+        <v>ehscxsli</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="E10" s="9">
         <v>37604</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" s="4">
         <v>868247806</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B11" s="4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>lqufubqs</v>
+        <v>dkbfgiwe</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E11" s="9">
         <v>37485</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="H11" s="4">
         <v>332743065</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E12" s="2"/>
     </row>
   </sheetData>
@@ -1092,21 +1095,21 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" customWidth="1"/>
-    <col min="2" max="2" width="18.08984375" customWidth="1"/>
+    <col min="1" max="1" width="9.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5</v>
       </c>
@@ -1114,7 +1117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>6</v>
       </c>
@@ -1122,7 +1125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>7</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>8</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>9</v>
       </c>
@@ -1146,7 +1149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>10</v>
       </c>
@@ -1166,45 +1169,45 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="2" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="19.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4">
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4">
-        <v>95000</v>
+        <v>250000</v>
       </c>
     </row>
   </sheetData>
@@ -1222,25 +1225,25 @@
       <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" customWidth="1"/>
-    <col min="3" max="3" width="17.90625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>5</v>
       </c>
@@ -1252,7 +1255,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>5</v>
       </c>
@@ -1264,7 +1267,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>6</v>
       </c>
@@ -1275,7 +1278,7 @@
         <v>126000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>6</v>
       </c>
@@ -1286,7 +1289,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>7</v>
       </c>
@@ -1297,7 +1300,7 @@
         <v>95000</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>7</v>
       </c>
@@ -1308,7 +1311,7 @@
         <v>123000</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>8</v>
       </c>
@@ -1319,7 +1322,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -1330,7 +1333,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1341,7 +1344,7 @@
         <v>98000</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>9</v>
       </c>
@@ -1367,25 +1370,25 @@
       <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.6328125" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" customWidth="1"/>
-    <col min="3" max="3" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1396,7 +1399,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -1407,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1418,7 +1421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>2</v>
       </c>
@@ -1429,7 +1432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -1440,7 +1443,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -1451,7 +1454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>3</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -1484,7 +1487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -1495,7 +1498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>6</v>
       </c>
@@ -1506,7 +1509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>6</v>
       </c>
@@ -1517,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -1528,7 +1531,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>8</v>
       </c>
@@ -1539,7 +1542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <v>9</v>
       </c>
@@ -1550,7 +1553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1561,7 +1564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>10</v>
       </c>
@@ -1572,7 +1575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>10</v>
       </c>
@@ -1598,34 +1601,34 @@
       <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.54296875" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>51</v>
       </c>
       <c r="C2" s="4">
         <v>41</v>
@@ -1634,12 +1637,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C3" s="4">
         <v>41</v>
@@ -1648,12 +1651,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="4">
         <v>45</v>
@@ -1662,12 +1665,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C5" s="4">
         <v>43</v>
@@ -1676,12 +1679,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C6" s="4">
         <v>39</v>
@@ -1690,12 +1693,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C7" s="4">
         <v>43</v>
@@ -1704,12 +1707,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C8" s="4">
         <v>41</v>
@@ -1718,12 +1721,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="4">
         <v>38</v>
@@ -1732,12 +1735,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="4">
         <v>44</v>
@@ -1746,12 +1749,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C11" s="4">
         <v>39</v>
@@ -1776,29 +1779,29 @@
       <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.36328125" customWidth="1"/>
-    <col min="2" max="2" width="24.08984375" customWidth="1"/>
-    <col min="3" max="3" width="10.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.90625" customWidth="1"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
         <v>45078.291666666664</v>
       </c>
@@ -1812,7 +1815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>45078.292361111111</v>
       </c>
@@ -1826,7 +1829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>45078.295138888891</v>
       </c>
@@ -1840,7 +1843,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>45078.29583333333</v>
       </c>
@@ -1854,7 +1857,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>45078.302083333336</v>
       </c>
@@ -1868,7 +1871,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>45078.541666666664</v>
       </c>
@@ -1882,7 +1885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>45078.542361111111</v>
       </c>
@@ -1896,7 +1899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>45078.545138888891</v>
       </c>
@@ -1910,7 +1913,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>45078.59375</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>45078.59375</v>
       </c>
@@ -1946,40 +1949,39 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54895FD2-E7B8-42B1-ADF0-EBF7AFCEA96D}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.36328125" customWidth="1"/>
-    <col min="2" max="2" width="10.453125" customWidth="1"/>
-    <col min="3" max="3" width="21.1796875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="22.54296875" customWidth="1"/>
-    <col min="5" max="5" width="20.6328125" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -1994,10 +1996,10 @@
         <v>45062.809710648151</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -2012,10 +2014,10 @@
         <v>45063.809710648151</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -2030,10 +2032,10 @@
         <v>45099.851377314815</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -2048,10 +2050,10 @@
         <v>45123.851377314815</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -2066,10 +2068,10 @@
         <v>45095.851377314815</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>1</v>
       </c>
@@ -2084,10 +2086,10 @@
         <v>45077.552661979164</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>1</v>
       </c>
@@ -2102,10 +2104,10 @@
         <v>45078.552661979164</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>3</v>
       </c>
@@ -2120,10 +2122,10 @@
         <v>45108.552662037036</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -2138,10 +2140,10 @@
         <v>45069.437638888892</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -2155,11 +2157,11 @@
         <f>C11+7</f>
         <v>45073.703194444446</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <v>2</v>
       </c>
@@ -2173,11 +2175,11 @@
         <f>C12+7</f>
         <v>45074.703194444446</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E12" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <v>3</v>
       </c>
@@ -2192,10 +2194,10 @@
         <v>45117.709837962961</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <v>3</v>
       </c>
@@ -2210,10 +2212,10 @@
         <v>45118.709837905095</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <v>2</v>
       </c>
@@ -2228,10 +2230,10 @@
         <v>45096.709837905095</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>1</v>
       </c>
@@ -2245,11 +2247,11 @@
         <f>C16+1</f>
         <v>45050.670972222222</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E16" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>1</v>
       </c>
@@ -2263,125 +2265,14 @@
         <f>C17+1</f>
         <v>45051.670972222222</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4">
-        <v>8</v>
-      </c>
-      <c r="C18" s="11">
-        <v>45082.670972222222</v>
-      </c>
-      <c r="D18" s="11">
-        <f>C18+7</f>
-        <v>45089.670972222222</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>3</v>
-      </c>
-      <c r="B19" s="4">
-        <v>8</v>
-      </c>
-      <c r="C19" s="11">
-        <v>45083.670972164349</v>
-      </c>
-      <c r="D19" s="11">
-        <f>C19+30</f>
-        <v>45113.670972164349</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" s="5">
-        <v>1</v>
-      </c>
-      <c r="B20" s="5">
-        <v>9</v>
-      </c>
-      <c r="C20" s="10">
-        <v>45071.47934027778</v>
-      </c>
-      <c r="D20" s="10">
-        <f>C20+1</f>
-        <v>45072.47934027778</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" s="5">
-        <v>3</v>
-      </c>
-      <c r="B21" s="5">
-        <v>9</v>
-      </c>
-      <c r="C21" s="10">
-        <v>45072.47934027778</v>
-      </c>
-      <c r="D21" s="10">
-        <f>C21+30</f>
-        <v>45102.47934027778</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" s="5">
-        <v>1</v>
-      </c>
-      <c r="B22" s="5">
-        <v>9</v>
-      </c>
-      <c r="C22" s="10">
-        <v>45104.47934027778</v>
-      </c>
-      <c r="D22" s="10">
-        <f>C22+1</f>
-        <v>45105.47934027778</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" s="5">
-        <v>3</v>
-      </c>
-      <c r="B23" s="5">
-        <v>9</v>
-      </c>
-      <c r="C23" s="10">
-        <v>45105.47934027778</v>
-      </c>
-      <c r="D23" s="10">
-        <f>C23+30</f>
-        <v>45135.47934027778</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>29</v>
+      <c r="E17" s="5" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="D22 D20" formula="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -2393,24 +2284,24 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>7</v>
       </c>
@@ -2429,25 +2320,25 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -2458,7 +2349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>2</v>
       </c>
@@ -2469,7 +2360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2480,7 +2371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>1</v>
       </c>
@@ -2491,7 +2382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>3</v>
       </c>
